--- a/New Microsoft Excel Worksheet 1.xlsx
+++ b/New Microsoft Excel Worksheet 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f695bcb84072230/Documents/version control lab/New practice/craftcommon_20_session/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048E5F1DA713E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8FB5A9E-CB4D-458D-AC95-1A8361F0CD25}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048E5F1DA713E5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A135912A-5A4B-41DD-BDEE-A84342D6169E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +80,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,6 +725,11 @@
         <v>46573</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
